--- a/excels/config/game/hero/talent_config/general_talent_config.xlsx
+++ b/excels/config/game/hero/talent_config/general_talent_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="24045" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="talent_config" sheetId="4" r:id="rId1"/>
@@ -3479,31 +3479,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3125B8EF-1D5C-42EA-ACE0-511F7CD0B5C7}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C4E94471-BD40-4816-AF8B-F693BB8B9129}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{AD0402A6-D727-4380-9702-6D994D3A8876}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F023A403-BF94-41CB-9555-BDCFEB511778}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{4A4DD787-4BA4-48DA-B262-94D5F7F1F8CE}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{DD8126E2-2FBF-4F5C-ABF2-6478294C6D5E}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0E89983D-DB9F-4709-9718-3CACF64AF68C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{501EC628-7D87-48E0-B44E-720469EFCB44}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{00324BB4-1C23-4CD1-9229-A22D8901068C}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7E2B7B03-DD5B-4C55-B783-EA449ED7D3E5}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -3809,13 +3809,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
@@ -3876,7 +3876,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excels/config/game/hero/talent_config/general_talent_config.xlsx
+++ b/excels/config/game/hero/talent_config/general_talent_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="13395"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="talent_config" sheetId="4" r:id="rId1"/>
@@ -29,18 +29,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="602">
   <si>
     <t>技能位置</t>
   </si>
   <si>
-    <t>解锁所需投入点数</t>
+    <t>解锁所需投入点数(点数解锁)</t>
+  </si>
+  <si>
+    <t>解锁所需的等级(等级解锁)</t>
   </si>
   <si>
     <t>key</t>
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>level</t>
   </si>
   <si>
     <t>键值</t>
@@ -2255,7 +2261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2604,6 +2610,58 @@
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
         <color theme="0"/>
       </right>
       <top style="thick">
@@ -2628,6 +2686,17 @@
     <border>
       <left style="thick">
         <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="medium">
         <color rgb="FFFFFFFF"/>
@@ -2681,27 +2750,36 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
+      <top/>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -2831,7 +2909,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2843,34 +2921,34 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2955,7 +3033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3091,28 +3169,52 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3479,31 +3581,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{C4E94471-BD40-4816-AF8B-F693BB8B9129}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{98E2F009-94B0-4997-827C-2D1C9B556A0B}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F023A403-BF94-41CB-9555-BDCFEB511778}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{6C3F5943-1E52-4F16-AA54-7D6A1310CD29}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{DD8126E2-2FBF-4F5C-ABF2-6478294C6D5E}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2DBFD570-49F8-48FE-9D4B-3D0CAE49C6CA}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{501EC628-7D87-48E0-B44E-720469EFCB44}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4DD7693E-BC9F-4814-B1A2-E55C95EEAB20}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{7E2B7B03-DD5B-4C55-B783-EA449ED7D3E5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{67ADC5C8-8EBA-4B9D-9248-EB693E810E07}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -3809,71 +3911,92 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" ht="15" spans="1:3">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="47" t="s">
+      <c r="C1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+    </row>
+    <row r="2" ht="14.25" spans="1:3">
+      <c r="A2" s="48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="49">
+      <c r="B2" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="51">
         <v>1</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="52">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="47">
+      <c r="C3" s="53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="54">
         <v>2</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="55">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="49">
+      <c r="C4" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="51">
         <v>3</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="52">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="47">
+      <c r="C5" s="57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="54">
         <v>4</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="55">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:2">
-      <c r="A7" s="51">
+      <c r="C6" s="56">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:3">
+      <c r="A7" s="58">
         <v>5</v>
       </c>
-      <c r="B7" s="52">
+      <c r="B7" s="59">
         <v>25</v>
+      </c>
+      <c r="C7" s="60">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3887,8 +4010,8 @@
   <sheetPr/>
   <dimension ref="A1:P81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3909,52 +4032,52 @@
   <sheetData>
     <row r="1" ht="22.5" customHeight="1" spans="1:16">
       <c r="A1" s="18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G1" s="19"/>
       <c r="H1" s="19"/>
       <c r="I1" s="27"/>
       <c r="J1" s="28"/>
       <c r="K1" s="29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
       <c r="O1" s="31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P1" s="32"/>
     </row>
     <row r="2" ht="22.5" customHeight="1" spans="1:16">
       <c r="A2" s="20" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" s="22">
         <v>1</v>
@@ -3966,10 +4089,10 @@
         <v>3</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="36">
         <v>1</v>
@@ -3981,29 +4104,29 @@
         <v>3</v>
       </c>
       <c r="O2" s="37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P2" s="38"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:16">
       <c r="A3" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D3" s="24">
         <v>5</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="24"/>
       <c r="G3" s="24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
@@ -4017,23 +4140,23 @@
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:16">
       <c r="A4" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" s="26">
         <v>5</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="26"/>
       <c r="G4" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
@@ -4047,23 +4170,23 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:16">
       <c r="A5" s="23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" s="24">
         <v>5</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
@@ -4077,23 +4200,23 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:16">
       <c r="A6" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D6" s="26">
         <v>5</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F6" s="26"/>
       <c r="G6" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="26"/>
@@ -4107,23 +4230,23 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:16">
       <c r="A7" s="23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="24">
         <v>5</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
@@ -4137,23 +4260,23 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:16">
       <c r="A8" s="25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="26">
         <v>5</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F8" s="26"/>
       <c r="G8" s="26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
@@ -4167,23 +4290,23 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:16">
       <c r="A9" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="24">
         <v>5</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
@@ -4197,23 +4320,23 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:16">
       <c r="A10" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C10" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D10" s="26">
         <v>5</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" s="26"/>
       <c r="G10" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -4227,23 +4350,23 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:16">
       <c r="A11" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D11" s="24">
         <v>5</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
@@ -4257,23 +4380,23 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:16">
       <c r="A12" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D12" s="26">
         <v>5</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" s="26"/>
       <c r="G12" s="26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -4287,23 +4410,23 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:16">
       <c r="A13" s="23" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D13" s="24">
         <v>5</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H13" s="24"/>
       <c r="I13" s="24"/>
@@ -4317,23 +4440,23 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:16">
       <c r="A14" s="25" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" s="26">
         <v>5</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F14" s="26"/>
       <c r="G14" s="26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H14" s="26"/>
       <c r="I14" s="26"/>
@@ -4347,23 +4470,23 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:16">
       <c r="A15" s="23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D15" s="24">
         <v>5</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
@@ -4377,23 +4500,23 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:16">
       <c r="A16" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D16" s="26">
         <v>5</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" s="26"/>
       <c r="G16" s="26" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H16" s="26"/>
       <c r="I16" s="26"/>
@@ -4407,23 +4530,23 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:16">
       <c r="A17" s="23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D17" s="24">
         <v>5</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
@@ -4437,23 +4560,23 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:16">
       <c r="A18" s="25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" s="26">
         <v>5</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H18" s="26"/>
       <c r="I18" s="26"/>
@@ -4467,23 +4590,23 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:16">
       <c r="A19" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>82</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>80</v>
       </c>
       <c r="D19" s="24">
         <v>5</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" s="24"/>
       <c r="I19" s="24"/>
@@ -4497,23 +4620,23 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:16">
       <c r="A20" s="25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D20" s="26">
         <v>5</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="26" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -4527,23 +4650,23 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:16">
       <c r="A21" s="23" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D21" s="24">
         <v>5</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
@@ -4557,23 +4680,23 @@
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:16">
       <c r="A22" s="25" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C22" s="26" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22" s="26">
         <v>5</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="26" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="26"/>
       <c r="I22" s="26"/>
@@ -4587,23 +4710,23 @@
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:16">
       <c r="A23" s="23" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D23" s="24">
         <v>5</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
@@ -4617,23 +4740,23 @@
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:16">
       <c r="A24" s="25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D24" s="26">
         <v>5</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="26" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
@@ -4647,23 +4770,23 @@
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:16">
       <c r="A25" s="23" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D25" s="24">
         <v>5</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
@@ -4677,23 +4800,23 @@
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:16">
       <c r="A26" s="25" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D26" s="26">
         <v>5</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F26" s="26"/>
       <c r="G26" s="26" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -4707,23 +4830,23 @@
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:16">
       <c r="A27" s="23" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" s="24">
         <v>5</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H27" s="24"/>
       <c r="I27" s="24"/>
@@ -4737,23 +4860,23 @@
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:16">
       <c r="A28" s="25" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D28" s="26">
         <v>5</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F28" s="26"/>
       <c r="G28" s="26" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -4767,23 +4890,23 @@
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:15">
       <c r="A29" s="23" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D29" s="24">
         <v>5</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H29" s="24"/>
       <c r="I29" s="24"/>
@@ -4796,23 +4919,23 @@
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:15">
       <c r="A30" s="25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D30" s="26">
         <v>5</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F30" s="26"/>
       <c r="G30" s="26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -4825,23 +4948,23 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:15">
       <c r="A31" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D31" s="24">
         <v>5</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
@@ -4854,23 +4977,23 @@
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:15">
       <c r="A32" s="25" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D32" s="26">
         <v>5</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H32" s="26"/>
       <c r="I32" s="26"/>
@@ -4883,23 +5006,23 @@
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:15">
       <c r="A33" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D33" s="24">
         <v>5</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H33" s="24"/>
       <c r="I33" s="24"/>
@@ -4912,23 +5035,23 @@
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:15">
       <c r="A34" s="25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D34" s="26">
         <v>5</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F34" s="26"/>
       <c r="G34" s="26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H34" s="26"/>
       <c r="I34" s="26"/>
@@ -4941,23 +5064,23 @@
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:15">
       <c r="A35" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D35" s="24">
         <v>5</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H35" s="24"/>
       <c r="I35" s="24"/>
@@ -4970,23 +5093,23 @@
     </row>
     <row r="36" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A36" s="25" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D36" s="26">
         <v>5</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F36" s="26"/>
       <c r="G36" s="26" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H36" s="26"/>
       <c r="I36" s="26"/>
@@ -4999,23 +5122,23 @@
     </row>
     <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A37" s="23" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C37" s="24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="24">
         <v>5</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H37" s="24"/>
       <c r="I37" s="24"/>
@@ -5028,19 +5151,19 @@
     </row>
     <row r="38" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A38" s="25" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D38" s="26">
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="26"/>
@@ -5055,19 +5178,19 @@
     </row>
     <row r="39" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A39" s="23" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D39" s="24">
         <v>1</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -5082,19 +5205,19 @@
     </row>
     <row r="40" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A40" s="25" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D40" s="26">
         <v>1</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="26"/>
@@ -5109,19 +5232,19 @@
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A41" s="23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D41" s="24">
         <v>1</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -5136,19 +5259,19 @@
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:15">
       <c r="A42" s="25" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D42" s="26">
         <v>1</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -5163,19 +5286,19 @@
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:15">
       <c r="A43" s="23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D43" s="24">
         <v>1</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -5190,19 +5313,19 @@
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:15">
       <c r="A44" s="25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D44" s="26">
         <v>1</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
@@ -5217,19 +5340,19 @@
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:15">
       <c r="A45" s="23" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D45" s="24">
         <v>1</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
@@ -5244,19 +5367,19 @@
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:15">
       <c r="A46" s="25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D46" s="26">
         <v>1</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
@@ -5271,19 +5394,19 @@
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:15">
       <c r="A47" s="23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D47" s="24">
         <v>1</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
@@ -5298,19 +5421,19 @@
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:15">
       <c r="A48" s="25" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D48" s="26">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F48" s="26"/>
       <c r="G48" s="26"/>
@@ -5325,19 +5448,19 @@
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:15">
       <c r="A49" s="23" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D49" s="24">
         <v>1</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
@@ -5352,19 +5475,19 @@
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:15">
       <c r="A50" s="25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D50" s="26">
         <v>1</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
@@ -5379,19 +5502,19 @@
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:15">
       <c r="A51" s="23" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D51" s="24">
         <v>1</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -5406,19 +5529,19 @@
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:15">
       <c r="A52" s="25" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C52" s="26" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D52" s="26">
         <v>1</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -5433,19 +5556,19 @@
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:15">
       <c r="A53" s="23" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D53" s="24">
         <v>1</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -5460,19 +5583,19 @@
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:15">
       <c r="A54" s="25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B54" s="26" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C54" s="26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D54" s="26">
         <v>1</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
@@ -5487,19 +5610,19 @@
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:15">
       <c r="A55" s="23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D55" s="24">
         <v>1</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -5514,19 +5637,19 @@
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:15">
       <c r="A56" s="25" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D56" s="26">
         <v>1</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -5541,19 +5664,19 @@
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:15">
       <c r="A57" s="23" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D57" s="24">
         <v>1</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -5568,19 +5691,19 @@
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:15">
       <c r="A58" s="25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D58" s="26">
         <v>1</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="26"/>
@@ -5595,19 +5718,19 @@
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:15">
       <c r="A59" s="23" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D59" s="24">
         <v>1</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -5622,19 +5745,19 @@
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:15">
       <c r="A60" s="25" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C60" s="26" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D60" s="26">
         <v>1</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="26"/>
@@ -5649,19 +5772,19 @@
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:15">
       <c r="A61" s="23" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D61" s="24">
         <v>1</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -5676,19 +5799,19 @@
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:15">
       <c r="A62" s="25" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D62" s="26">
         <v>1</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="26"/>
@@ -5703,19 +5826,19 @@
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:15">
       <c r="A63" s="23" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C63" s="24" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D63" s="24">
         <v>1</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
@@ -5730,19 +5853,19 @@
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:15">
       <c r="A64" s="25" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D64" s="26">
         <v>1</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="26"/>
@@ -5757,19 +5880,19 @@
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:15">
       <c r="A65" s="23" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B65" s="24" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D65" s="24">
         <v>1</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
@@ -5784,19 +5907,19 @@
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:15">
       <c r="A66" s="25" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D66" s="26">
         <v>1</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F66" s="26"/>
       <c r="G66" s="26"/>
@@ -5811,19 +5934,19 @@
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:15">
       <c r="A67" s="23" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D67" s="24">
         <v>1</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -5838,19 +5961,19 @@
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:15">
       <c r="A68" s="25" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C68" s="26" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D68" s="26">
         <v>1</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="26"/>
@@ -5865,19 +5988,19 @@
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:15">
       <c r="A69" s="23" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D69" s="24">
         <v>1</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -5892,19 +6015,19 @@
     </row>
     <row r="70" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A70" s="25" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D70" s="26">
         <v>1</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="26"/>
@@ -5919,19 +6042,19 @@
     </row>
     <row r="71" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A71" s="23" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D71" s="24">
         <v>1</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -5946,19 +6069,19 @@
     </row>
     <row r="72" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A72" s="25" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C72" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D72" s="26">
         <v>1</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="26"/>
@@ -5973,19 +6096,19 @@
     </row>
     <row r="73" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A73" s="23" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B73" s="24" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C73" s="24" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D73" s="24">
         <v>1</v>
       </c>
       <c r="E73" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -6000,19 +6123,19 @@
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:15">
       <c r="A74" s="23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B74" s="24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C74" s="24" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D74" s="24">
         <v>1</v>
       </c>
       <c r="E74" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
@@ -6027,19 +6150,19 @@
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:15">
       <c r="A75" s="23" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D75" s="24">
         <v>1</v>
       </c>
       <c r="E75" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
@@ -6054,19 +6177,19 @@
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:15">
       <c r="A76" s="23" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B76" s="24" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D76" s="24">
         <v>1</v>
       </c>
       <c r="E76" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -6081,19 +6204,19 @@
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:15">
       <c r="A77" s="23" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B77" s="24" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C77" s="24" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D77" s="24">
         <v>1</v>
       </c>
       <c r="E77" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
@@ -6108,19 +6231,19 @@
     </row>
     <row r="78" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A78" s="23" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B78" s="24" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C78" s="24" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D78" s="24">
         <v>1</v>
       </c>
       <c r="E78" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
@@ -6135,19 +6258,19 @@
     </row>
     <row r="79" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A79" s="23" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B79" s="24" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C79" s="24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D79" s="24">
         <v>1</v>
       </c>
       <c r="E79" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
@@ -6162,19 +6285,19 @@
     </row>
     <row r="80" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A80" s="23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B80" s="24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C80" s="24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D80" s="24">
         <v>1</v>
       </c>
       <c r="E80" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
@@ -6189,19 +6312,19 @@
     </row>
     <row r="81" customFormat="1" ht="22.5" customHeight="1" spans="1:15">
       <c r="A81" s="23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B81" s="24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C81" s="24" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D81" s="24">
         <v>1</v>
       </c>
       <c r="E81" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
@@ -6225,8 +6348,8 @@
   <sheetPr/>
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6245,10 +6368,10 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -6259,14 +6382,14 @@
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -6278,39 +6401,39 @@
         <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
       <c r="E3" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="11"/>
       <c r="E4" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F4" s="12"/>
       <c r="G4" s="10"/>
@@ -6318,15 +6441,15 @@
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="11"/>
       <c r="E5" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F5" s="12"/>
       <c r="G5" s="10"/>
@@ -6334,10 +6457,10 @@
     </row>
     <row r="6" ht="22.5" customHeight="1" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="11"/>
@@ -6348,10 +6471,10 @@
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="11"/>
@@ -6362,10 +6485,10 @@
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
@@ -6376,15 +6499,15 @@
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="11"/>
       <c r="E9" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="10"/>
@@ -6392,10 +6515,10 @@
     </row>
     <row r="10" ht="22.5" customHeight="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
@@ -6406,7 +6529,7 @@
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -6418,7 +6541,7 @@
     </row>
     <row r="12" ht="22.5" customHeight="1" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -6430,7 +6553,7 @@
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -6442,7 +6565,7 @@
     </row>
     <row r="14" ht="22.5" customHeight="1" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -6454,10 +6577,10 @@
     </row>
     <row r="15" ht="22.5" customHeight="1" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
@@ -6468,10 +6591,10 @@
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
@@ -6482,10 +6605,10 @@
     </row>
     <row r="17" ht="22.5" customHeight="1" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
@@ -6496,10 +6619,10 @@
     </row>
     <row r="18" ht="22.5" customHeight="1" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
@@ -6510,10 +6633,10 @@
     </row>
     <row r="19" ht="22.5" customHeight="1" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -6524,10 +6647,10 @@
     </row>
     <row r="20" ht="22.5" customHeight="1" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="11"/>
@@ -6538,10 +6661,10 @@
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="11"/>
@@ -6552,10 +6675,10 @@
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
@@ -6566,10 +6689,10 @@
     </row>
     <row r="23" ht="22.5" customHeight="1" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="11"/>
@@ -6580,10 +6703,10 @@
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
@@ -6594,10 +6717,10 @@
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:8">
       <c r="A25" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="11"/>
@@ -6608,10 +6731,10 @@
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:8">
       <c r="A26" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="11"/>
@@ -6622,7 +6745,7 @@
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:8">
       <c r="A27" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -6634,7 +6757,7 @@
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:8">
       <c r="A28" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -6646,7 +6769,7 @@
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:8">
       <c r="A29" s="8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -6658,7 +6781,7 @@
     </row>
     <row r="30" ht="22.5" customHeight="1" spans="1:8">
       <c r="A30" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -6670,10 +6793,10 @@
     </row>
     <row r="31" ht="22.5" customHeight="1" spans="1:8">
       <c r="A31" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="11"/>
@@ -6684,10 +6807,10 @@
     </row>
     <row r="32" ht="22.5" customHeight="1" spans="1:8">
       <c r="A32" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
@@ -6698,10 +6821,10 @@
     </row>
     <row r="33" ht="22.5" customHeight="1" spans="1:8">
       <c r="A33" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11"/>
@@ -6712,10 +6835,10 @@
     </row>
     <row r="34" ht="22.5" customHeight="1" spans="1:8">
       <c r="A34" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="11"/>
@@ -6726,10 +6849,10 @@
     </row>
     <row r="35" ht="22.5" customHeight="1" spans="1:8">
       <c r="A35" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="11"/>
@@ -6740,10 +6863,10 @@
     </row>
     <row r="36" ht="22.5" customHeight="1" spans="1:8">
       <c r="A36" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="11"/>
@@ -6754,10 +6877,10 @@
     </row>
     <row r="37" ht="22.5" customHeight="1" spans="1:8">
       <c r="A37" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="11"/>
@@ -6768,10 +6891,10 @@
     </row>
     <row r="38" ht="22.5" customHeight="1" spans="1:8">
       <c r="A38" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11"/>
@@ -6782,10 +6905,10 @@
     </row>
     <row r="39" ht="22.5" customHeight="1" spans="1:8">
       <c r="A39" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11"/>
@@ -6796,10 +6919,10 @@
     </row>
     <row r="40" ht="22.5" customHeight="1" spans="1:8">
       <c r="A40" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11"/>
@@ -6810,10 +6933,10 @@
     </row>
     <row r="41" ht="22.5" customHeight="1" spans="1:8">
       <c r="A41" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
@@ -6824,10 +6947,10 @@
     </row>
     <row r="42" ht="22.5" customHeight="1" spans="1:8">
       <c r="A42" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11"/>
@@ -6838,7 +6961,7 @@
     </row>
     <row r="43" ht="22.5" customHeight="1" spans="1:8">
       <c r="A43" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -6850,7 +6973,7 @@
     </row>
     <row r="44" ht="22.5" customHeight="1" spans="1:8">
       <c r="A44" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -6862,7 +6985,7 @@
     </row>
     <row r="45" ht="22.5" customHeight="1" spans="1:8">
       <c r="A45" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -6874,7 +6997,7 @@
     </row>
     <row r="46" ht="22.5" customHeight="1" spans="1:8">
       <c r="A46" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -6886,10 +7009,10 @@
     </row>
     <row r="47" ht="22.5" customHeight="1" spans="1:8">
       <c r="A47" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="11"/>
@@ -6900,10 +7023,10 @@
     </row>
     <row r="48" ht="22.5" customHeight="1" spans="1:8">
       <c r="A48" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
@@ -6914,10 +7037,10 @@
     </row>
     <row r="49" ht="22.5" customHeight="1" spans="1:8">
       <c r="A49" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="11"/>
@@ -6928,10 +7051,10 @@
     </row>
     <row r="50" ht="22.5" customHeight="1" spans="1:8">
       <c r="A50" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
@@ -6942,10 +7065,10 @@
     </row>
     <row r="51" ht="22.5" customHeight="1" spans="1:8">
       <c r="A51" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="11"/>
@@ -6956,10 +7079,10 @@
     </row>
     <row r="52" ht="22.5" customHeight="1" spans="1:8">
       <c r="A52" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="11"/>
@@ -6970,10 +7093,10 @@
     </row>
     <row r="53" ht="22.5" customHeight="1" spans="1:8">
       <c r="A53" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="11"/>
@@ -6984,10 +7107,10 @@
     </row>
     <row r="54" ht="22.5" customHeight="1" spans="1:8">
       <c r="A54" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="11"/>
@@ -6998,10 +7121,10 @@
     </row>
     <row r="55" ht="22.5" customHeight="1" spans="1:8">
       <c r="A55" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="11"/>
@@ -7012,10 +7135,10 @@
     </row>
     <row r="56" ht="22.5" customHeight="1" spans="1:8">
       <c r="A56" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="11"/>
@@ -7026,10 +7149,10 @@
     </row>
     <row r="57" ht="22.5" customHeight="1" spans="1:8">
       <c r="A57" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="11"/>
@@ -7040,10 +7163,10 @@
     </row>
     <row r="58" ht="22.5" customHeight="1" spans="1:8">
       <c r="A58" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="11"/>
@@ -7054,7 +7177,7 @@
     </row>
     <row r="59" ht="22.5" customHeight="1" spans="1:8">
       <c r="A59" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -7066,7 +7189,7 @@
     </row>
     <row r="60" ht="22.5" customHeight="1" spans="1:8">
       <c r="A60" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -7078,7 +7201,7 @@
     </row>
     <row r="61" ht="22.5" customHeight="1" spans="1:8">
       <c r="A61" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
@@ -7090,7 +7213,7 @@
     </row>
     <row r="62" ht="22.5" customHeight="1" spans="1:8">
       <c r="A62" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -7102,10 +7225,10 @@
     </row>
     <row r="63" ht="22.5" customHeight="1" spans="1:8">
       <c r="A63" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="11"/>
@@ -7116,10 +7239,10 @@
     </row>
     <row r="64" ht="22.5" customHeight="1" spans="1:8">
       <c r="A64" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="11"/>
@@ -7130,10 +7253,10 @@
     </row>
     <row r="65" ht="22.5" customHeight="1" spans="1:8">
       <c r="A65" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="11"/>
@@ -7144,10 +7267,10 @@
     </row>
     <row r="66" ht="22.5" customHeight="1" spans="1:8">
       <c r="A66" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="11"/>
@@ -7158,10 +7281,10 @@
     </row>
     <row r="67" ht="22.5" customHeight="1" spans="1:8">
       <c r="A67" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="11"/>
@@ -7172,10 +7295,10 @@
     </row>
     <row r="68" ht="22.5" customHeight="1" spans="1:8">
       <c r="A68" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="11"/>
@@ -7186,10 +7309,10 @@
     </row>
     <row r="69" ht="22.5" customHeight="1" spans="1:8">
       <c r="A69" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="11"/>
@@ -7200,10 +7323,10 @@
     </row>
     <row r="70" ht="22.5" customHeight="1" spans="1:8">
       <c r="A70" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="11"/>
@@ -7214,10 +7337,10 @@
     </row>
     <row r="71" ht="22.5" customHeight="1" spans="1:8">
       <c r="A71" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
@@ -7228,10 +7351,10 @@
     </row>
     <row r="72" ht="22.5" customHeight="1" spans="1:8">
       <c r="A72" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="11"/>
@@ -7242,10 +7365,10 @@
     </row>
     <row r="73" ht="22.5" customHeight="1" spans="1:8">
       <c r="A73" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="11"/>
@@ -7256,10 +7379,10 @@
     </row>
     <row r="74" ht="22.5" customHeight="1" spans="1:8">
       <c r="A74" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
@@ -7270,7 +7393,7 @@
     </row>
     <row r="75" ht="22.5" customHeight="1" spans="1:8">
       <c r="A75" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -7282,7 +7405,7 @@
     </row>
     <row r="76" ht="22.5" customHeight="1" spans="1:8">
       <c r="A76" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -7294,7 +7417,7 @@
     </row>
     <row r="77" ht="22.5" customHeight="1" spans="1:8">
       <c r="A77" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
@@ -7306,7 +7429,7 @@
     </row>
     <row r="78" ht="22.5" customHeight="1" spans="1:8">
       <c r="A78" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -7318,10 +7441,10 @@
     </row>
     <row r="79" ht="22.5" customHeight="1" spans="1:8">
       <c r="A79" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
@@ -7332,10 +7455,10 @@
     </row>
     <row r="80" ht="22.5" customHeight="1" spans="1:8">
       <c r="A80" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
@@ -7346,10 +7469,10 @@
     </row>
     <row r="81" ht="22.5" customHeight="1" spans="1:8">
       <c r="A81" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
@@ -7360,10 +7483,10 @@
     </row>
     <row r="82" ht="22.5" customHeight="1" spans="1:8">
       <c r="A82" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
@@ -7374,10 +7497,10 @@
     </row>
     <row r="83" ht="22.5" customHeight="1" spans="1:8">
       <c r="A83" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
@@ -7388,10 +7511,10 @@
     </row>
     <row r="84" ht="22.5" customHeight="1" spans="1:8">
       <c r="A84" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
@@ -7402,10 +7525,10 @@
     </row>
     <row r="85" ht="22.5" customHeight="1" spans="1:8">
       <c r="A85" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
@@ -7416,10 +7539,10 @@
     </row>
     <row r="86" ht="22.5" customHeight="1" spans="1:8">
       <c r="A86" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
@@ -7430,10 +7553,10 @@
     </row>
     <row r="87" ht="22.5" customHeight="1" spans="1:8">
       <c r="A87" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
@@ -7444,10 +7567,10 @@
     </row>
     <row r="88" ht="22.5" customHeight="1" spans="1:8">
       <c r="A88" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
@@ -7458,10 +7581,10 @@
     </row>
     <row r="89" ht="22.5" customHeight="1" spans="1:8">
       <c r="A89" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
@@ -7472,10 +7595,10 @@
     </row>
     <row r="90" ht="22.5" customHeight="1" spans="1:8">
       <c r="A90" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
@@ -7486,7 +7609,7 @@
     </row>
     <row r="91" ht="22.5" customHeight="1" spans="1:8">
       <c r="A91" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
@@ -7498,7 +7621,7 @@
     </row>
     <row r="92" ht="22.5" customHeight="1" spans="1:8">
       <c r="A92" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
@@ -7510,7 +7633,7 @@
     </row>
     <row r="93" ht="22.5" customHeight="1" spans="1:8">
       <c r="A93" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
@@ -7522,7 +7645,7 @@
     </row>
     <row r="94" ht="22.5" customHeight="1" spans="1:8">
       <c r="A94" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
@@ -7534,10 +7657,10 @@
     </row>
     <row r="95" ht="22.5" customHeight="1" spans="1:8">
       <c r="A95" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
@@ -7548,10 +7671,10 @@
     </row>
     <row r="96" ht="22.5" customHeight="1" spans="1:8">
       <c r="A96" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
@@ -7562,10 +7685,10 @@
     </row>
     <row r="97" ht="22.5" customHeight="1" spans="1:8">
       <c r="A97" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
@@ -7576,10 +7699,10 @@
     </row>
     <row r="98" ht="22.5" customHeight="1" spans="1:8">
       <c r="A98" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
@@ -7590,10 +7713,10 @@
     </row>
     <row r="99" ht="22.5" customHeight="1" spans="1:8">
       <c r="A99" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
@@ -7604,10 +7727,10 @@
     </row>
     <row r="100" ht="22.5" customHeight="1" spans="1:8">
       <c r="A100" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
@@ -7618,10 +7741,10 @@
     </row>
     <row r="101" ht="22.5" customHeight="1" spans="1:8">
       <c r="A101" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
@@ -7632,10 +7755,10 @@
     </row>
     <row r="102" ht="22.5" customHeight="1" spans="1:8">
       <c r="A102" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
@@ -7646,10 +7769,10 @@
     </row>
     <row r="103" ht="22.5" customHeight="1" spans="1:8">
       <c r="A103" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
@@ -7660,10 +7783,10 @@
     </row>
     <row r="104" ht="22.5" customHeight="1" spans="1:8">
       <c r="A104" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
@@ -7674,10 +7797,10 @@
     </row>
     <row r="105" ht="22.5" customHeight="1" spans="1:8">
       <c r="A105" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
@@ -7688,10 +7811,10 @@
     </row>
     <row r="106" ht="22.5" customHeight="1" spans="1:8">
       <c r="A106" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
@@ -7702,7 +7825,7 @@
     </row>
     <row r="107" ht="22.5" customHeight="1" spans="1:8">
       <c r="A107" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
@@ -7714,7 +7837,7 @@
     </row>
     <row r="108" ht="22.5" customHeight="1" spans="1:8">
       <c r="A108" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
@@ -7726,7 +7849,7 @@
     </row>
     <row r="109" ht="22.5" customHeight="1" spans="1:8">
       <c r="A109" s="8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
@@ -7738,7 +7861,7 @@
     </row>
     <row r="110" ht="22.5" customHeight="1" spans="1:8">
       <c r="A110" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
@@ -7750,10 +7873,10 @@
     </row>
     <row r="111" ht="22.5" customHeight="1" spans="1:8">
       <c r="A111" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
@@ -7764,10 +7887,10 @@
     </row>
     <row r="112" ht="22.5" customHeight="1" spans="1:8">
       <c r="A112" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
@@ -7778,10 +7901,10 @@
     </row>
     <row r="113" ht="22.5" customHeight="1" spans="1:8">
       <c r="A113" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
@@ -7792,10 +7915,10 @@
     </row>
     <row r="114" ht="22.5" customHeight="1" spans="1:8">
       <c r="A114" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
@@ -7806,10 +7929,10 @@
     </row>
     <row r="115" ht="22.5" customHeight="1" spans="1:8">
       <c r="A115" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
@@ -7820,10 +7943,10 @@
     </row>
     <row r="116" ht="22.5" customHeight="1" spans="1:8">
       <c r="A116" s="8" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
@@ -7834,10 +7957,10 @@
     </row>
     <row r="117" ht="22.5" customHeight="1" spans="1:8">
       <c r="A117" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
@@ -7848,10 +7971,10 @@
     </row>
     <row r="118" ht="22.5" customHeight="1" spans="1:8">
       <c r="A118" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
@@ -7862,10 +7985,10 @@
     </row>
     <row r="119" ht="22.5" customHeight="1" spans="1:8">
       <c r="A119" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
@@ -7876,10 +7999,10 @@
     </row>
     <row r="120" ht="22.5" customHeight="1" spans="1:8">
       <c r="A120" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
@@ -7890,10 +8013,10 @@
     </row>
     <row r="121" ht="22.5" customHeight="1" spans="1:8">
       <c r="A121" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
@@ -7904,10 +8027,10 @@
     </row>
     <row r="122" ht="22.5" customHeight="1" spans="1:8">
       <c r="A122" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
@@ -7918,7 +8041,7 @@
     </row>
     <row r="123" ht="22.5" customHeight="1" spans="1:8">
       <c r="A123" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
@@ -7930,7 +8053,7 @@
     </row>
     <row r="124" ht="22.5" customHeight="1" spans="1:8">
       <c r="A124" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
@@ -7942,7 +8065,7 @@
     </row>
     <row r="125" ht="22.5" customHeight="1" spans="1:8">
       <c r="A125" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
@@ -7954,7 +8077,7 @@
     </row>
     <row r="126" ht="22.5" customHeight="1" spans="1:8">
       <c r="A126" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
@@ -7966,10 +8089,10 @@
     </row>
     <row r="127" ht="22.5" customHeight="1" spans="1:8">
       <c r="A127" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
@@ -7980,10 +8103,10 @@
     </row>
     <row r="128" ht="22.5" customHeight="1" spans="1:8">
       <c r="A128" s="8" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
@@ -7994,10 +8117,10 @@
     </row>
     <row r="129" ht="22.5" customHeight="1" spans="1:8">
       <c r="A129" s="8" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="11"/>
@@ -8008,10 +8131,10 @@
     </row>
     <row r="130" ht="22.5" customHeight="1" spans="1:8">
       <c r="A130" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
@@ -8022,10 +8145,10 @@
     </row>
     <row r="131" ht="22.5" customHeight="1" spans="1:8">
       <c r="A131" s="8" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
@@ -8036,10 +8159,10 @@
     </row>
     <row r="132" ht="22.5" customHeight="1" spans="1:8">
       <c r="A132" s="8" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
@@ -8050,10 +8173,10 @@
     </row>
     <row r="133" ht="22.5" customHeight="1" spans="1:8">
       <c r="A133" s="8" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
@@ -8064,10 +8187,10 @@
     </row>
     <row r="134" ht="22.5" customHeight="1" spans="1:8">
       <c r="A134" s="8" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
@@ -8078,10 +8201,10 @@
     </row>
     <row r="135" ht="22.5" customHeight="1" spans="1:8">
       <c r="A135" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
@@ -8092,10 +8215,10 @@
     </row>
     <row r="136" ht="22.5" customHeight="1" spans="1:8">
       <c r="A136" s="8" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="11"/>
@@ -8106,10 +8229,10 @@
     </row>
     <row r="137" ht="22.5" customHeight="1" spans="1:8">
       <c r="A137" s="8" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
@@ -8120,10 +8243,10 @@
     </row>
     <row r="138" ht="22.5" customHeight="1" spans="1:8">
       <c r="A138" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
@@ -8134,7 +8257,7 @@
     </row>
     <row r="139" ht="22.5" customHeight="1" spans="1:8">
       <c r="A139" s="8" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
@@ -8146,7 +8269,7 @@
     </row>
     <row r="140" ht="22.5" customHeight="1" spans="1:8">
       <c r="A140" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
@@ -8158,7 +8281,7 @@
     </row>
     <row r="141" ht="22.5" customHeight="1" spans="1:8">
       <c r="A141" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
@@ -8170,7 +8293,7 @@
     </row>
     <row r="142" ht="22.5" customHeight="1" spans="1:8">
       <c r="A142" s="8" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
@@ -8182,10 +8305,10 @@
     </row>
     <row r="143" ht="22.5" customHeight="1" spans="1:8">
       <c r="A143" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
@@ -8196,10 +8319,10 @@
     </row>
     <row r="144" ht="22.5" customHeight="1" spans="1:8">
       <c r="A144" s="8" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
@@ -8210,10 +8333,10 @@
     </row>
     <row r="145" ht="22.5" customHeight="1" spans="1:8">
       <c r="A145" s="8" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
@@ -8224,10 +8347,10 @@
     </row>
     <row r="146" ht="22.5" customHeight="1" spans="1:8">
       <c r="A146" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
@@ -8238,10 +8361,10 @@
     </row>
     <row r="147" ht="22.5" customHeight="1" spans="1:8">
       <c r="A147" s="8" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
@@ -8252,10 +8375,10 @@
     </row>
     <row r="148" ht="22.5" customHeight="1" spans="1:8">
       <c r="A148" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
@@ -8266,10 +8389,10 @@
     </row>
     <row r="149" ht="22.5" customHeight="1" spans="1:8">
       <c r="A149" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
@@ -8280,10 +8403,10 @@
     </row>
     <row r="150" ht="22.5" customHeight="1" spans="1:8">
       <c r="A150" s="8" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
@@ -8294,10 +8417,10 @@
     </row>
     <row r="151" ht="22.5" customHeight="1" spans="1:8">
       <c r="A151" s="8" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
@@ -8308,10 +8431,10 @@
     </row>
     <row r="152" ht="22.5" customHeight="1" spans="1:8">
       <c r="A152" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
@@ -8322,10 +8445,10 @@
     </row>
     <row r="153" ht="22.5" customHeight="1" spans="1:8">
       <c r="A153" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
@@ -8336,10 +8459,10 @@
     </row>
     <row r="154" ht="22.5" customHeight="1" spans="1:8">
       <c r="A154" s="8" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
@@ -8350,7 +8473,7 @@
     </row>
     <row r="155" ht="22.5" customHeight="1" spans="1:8">
       <c r="A155" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
@@ -8362,7 +8485,7 @@
     </row>
     <row r="156" ht="22.5" customHeight="1" spans="1:8">
       <c r="A156" s="8" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
@@ -8374,7 +8497,7 @@
     </row>
     <row r="157" ht="22.5" customHeight="1" spans="1:8">
       <c r="A157" s="8" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
@@ -8386,7 +8509,7 @@
     </row>
     <row r="158" ht="22.5" customHeight="1" spans="1:8">
       <c r="A158" s="8" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
@@ -8398,10 +8521,10 @@
     </row>
     <row r="159" ht="22.5" customHeight="1" spans="1:8">
       <c r="A159" s="8" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
@@ -8412,10 +8535,10 @@
     </row>
     <row r="160" ht="22.5" customHeight="1" spans="1:8">
       <c r="A160" s="8" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
@@ -8426,10 +8549,10 @@
     </row>
     <row r="161" ht="22.5" customHeight="1" spans="1:8">
       <c r="A161" s="8" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
@@ -8440,10 +8563,10 @@
     </row>
     <row r="162" ht="22.5" customHeight="1" spans="1:8">
       <c r="A162" s="8" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
@@ -8454,10 +8577,10 @@
     </row>
     <row r="163" ht="22.5" customHeight="1" spans="1:8">
       <c r="A163" s="8" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
@@ -8468,10 +8591,10 @@
     </row>
     <row r="164" ht="22.5" customHeight="1" spans="1:7">
       <c r="A164" s="8" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="C164" s="10"/>
       <c r="E164" s="8"/>
@@ -8480,10 +8603,10 @@
     </row>
     <row r="165" ht="22.5" customHeight="1" spans="1:7">
       <c r="A165" s="8" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C165" s="10"/>
       <c r="E165" s="8"/>
@@ -8492,10 +8615,10 @@
     </row>
     <row r="166" ht="22.5" customHeight="1" spans="1:7">
       <c r="A166" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="C166" s="10"/>
       <c r="E166" s="8"/>
@@ -8504,10 +8627,10 @@
     </row>
     <row r="167" ht="22.5" customHeight="1" spans="1:7">
       <c r="A167" s="8" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C167" s="10"/>
       <c r="E167" s="8"/>
@@ -8516,10 +8639,10 @@
     </row>
     <row r="168" ht="22.5" customHeight="1" spans="1:7">
       <c r="A168" s="8" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C168" s="10"/>
       <c r="E168" s="8"/>
@@ -8528,10 +8651,10 @@
     </row>
     <row r="169" ht="22.5" customHeight="1" spans="1:7">
       <c r="A169" s="8" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="C169" s="10"/>
       <c r="E169" s="8"/>
@@ -8540,10 +8663,10 @@
     </row>
     <row r="170" ht="22.5" customHeight="1" spans="1:7">
       <c r="A170" s="8" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="C170" s="10"/>
       <c r="E170" s="8"/>
@@ -8552,7 +8675,7 @@
     </row>
     <row r="171" ht="22.5" customHeight="1" spans="1:7">
       <c r="A171" s="8" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
@@ -8562,7 +8685,7 @@
     </row>
     <row r="172" ht="22.5" customHeight="1" spans="1:7">
       <c r="A172" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
@@ -8572,7 +8695,7 @@
     </row>
     <row r="173" ht="22.5" customHeight="1" spans="1:7">
       <c r="A173" s="8" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
@@ -8582,7 +8705,7 @@
     </row>
     <row r="174" ht="22.5" customHeight="1" spans="1:7">
       <c r="A174" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="10"/>
@@ -8592,10 +8715,10 @@
     </row>
     <row r="175" ht="22.5" customHeight="1" spans="1:7">
       <c r="A175" s="8" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C175" s="10"/>
       <c r="E175" s="8"/>
@@ -8604,10 +8727,10 @@
     </row>
     <row r="176" ht="22.5" customHeight="1" spans="1:7">
       <c r="A176" s="8" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C176" s="10"/>
       <c r="E176" s="8"/>
@@ -8616,10 +8739,10 @@
     </row>
     <row r="177" ht="22.5" customHeight="1" spans="1:7">
       <c r="A177" s="8" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C177" s="10"/>
       <c r="E177" s="8"/>
@@ -8628,10 +8751,10 @@
     </row>
     <row r="178" ht="22.5" customHeight="1" spans="1:7">
       <c r="A178" s="8" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B178" s="13" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="C178" s="14"/>
       <c r="E178" s="15"/>

--- a/excels/config/game/hero/talent_config/general_talent_config.xlsx
+++ b/excels/config/game/hero/talent_config/general_talent_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="talent_config" sheetId="4" r:id="rId1"/>
@@ -3033,7 +3033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3203,9 +3203,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3581,31 +3578,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{98E2F009-94B0-4997-827C-2D1C9B556A0B}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{135C6284-BBE1-438A-9714-F4192677A05D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{6C3F5943-1E52-4F16-AA54-7D6A1310CD29}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{02D7B191-8BB8-450C-A6C3-952A593682D1}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{2DBFD570-49F8-48FE-9D4B-3D0CAE49C6CA}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C9FE5AEB-0D67-4F96-9FFC-607B9B5E35B9}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4DD7693E-BC9F-4814-B1A2-E55C95EEAB20}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C4C74B65-BC51-4740-BCEB-ACE7E4D0F30C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{67ADC5C8-8EBA-4B9D-9248-EB693E810E07}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A4193879-ACBB-4D02-AC1D-977D87B9851B}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -3911,13 +3908,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="3" width="27" customWidth="1"/>
   </cols>
@@ -3973,7 +3970,7 @@
       <c r="B5" s="52">
         <v>10</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="53">
         <v>11</v>
       </c>
     </row>
@@ -3989,16 +3986,17 @@
       </c>
     </row>
     <row r="7" ht="12" customHeight="1" spans="1:3">
-      <c r="A7" s="58">
+      <c r="A7" s="57">
         <v>5</v>
       </c>
-      <c r="B7" s="59">
-        <v>25</v>
-      </c>
-      <c r="C7" s="60">
+      <c r="B7" s="58">
+        <v>20</v>
+      </c>
+      <c r="C7" s="59">
         <v>21</v>
       </c>
     </row>
+    <row r="8" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
